--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaizh\Desktop\管理系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\java\springBoot\git\IMS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -374,9 +374,6 @@
     <t>按createtime排序</t>
   </si>
   <si>
-    <t>what is Spec?</t>
-  </si>
-  <si>
     <t>add user   Dept Name 必填项</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>添加一个switch，显示/不显示 数量为0 的商品</t>
+  </si>
+  <si>
+    <t>pro_production 中specification 字段</t>
   </si>
 </sst>
 </file>
@@ -567,14 +567,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,8 +858,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -924,7 +924,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -947,7 +947,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -968,7 +968,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -989,7 +989,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +1013,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.8" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -1075,11 +1075,11 @@
         <v>94</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1120,11 +1120,11 @@
         <v>94</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1144,11 +1144,11 @@
         <v>94</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="27.6">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.2" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1360,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1">
-      <c r="A25" s="25"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="18" t="s">
         <v>28</v>
       </c>
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.2" customHeight="1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A28" s="25"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A29" s="25"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="82.8">
-      <c r="A30" s="25"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="8" t="s">
         <v>101</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1548,11 +1548,11 @@
         <v>94</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="25"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27.6">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27.6">
-      <c r="A34" s="24"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1">
-      <c r="A35" s="24"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A36" s="24"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -1659,7 +1659,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="37.799999999999997" customHeight="1">
-      <c r="A38" s="24"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1701,7 +1701,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A39" s="24"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
@@ -1721,11 +1721,11 @@
         <v>94</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1748,7 +1748,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="24"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="24"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="8" t="s">
         <v>45</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="11.4" customHeight="1">
+    <row r="52" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
@@ -2076,11 +2076,11 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="26" t="s">
-        <v>110</v>
+      <c r="B56" s="24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:7">

--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
   <si>
     <t>Page</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>pro_production 中specification 字段</t>
+  </si>
+  <si>
+    <t>SP1 修改？？</t>
   </si>
 </sst>
 </file>
@@ -859,7 +862,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="B24:G24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1141,7 +1144,7 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>112</v>

--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -861,8 +861,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1642,13 +1642,13 @@
     </row>
     <row r="36" spans="1:8" ht="26.4" customHeight="1">
       <c r="A36" s="26"/>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="6">
@@ -1657,7 +1657,7 @@
       <c r="F36" s="6">
         <v>2</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="18" t="s">
         <v>94</v>
       </c>
     </row>

--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
   <si>
     <t>Page</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>SP1 修改？？</t>
+  </si>
+  <si>
+    <t>specification 字段 要在quote 的界面显示吗？？？？？</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -577,6 +580,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,8 +867,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1660,6 +1666,9 @@
       <c r="G36" s="18" t="s">
         <v>94</v>
       </c>
+      <c r="H36" s="28" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="36.6" customHeight="1">
       <c r="A37" s="26"/>
@@ -1705,13 +1714,13 @@
     </row>
     <row r="39" spans="1:8" ht="22.8" customHeight="1">
       <c r="A39" s="26"/>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="6">
@@ -1720,7 +1729,7 @@
       <c r="F39" s="6">
         <v>1</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="18" t="s">
         <v>94</v>
       </c>
       <c r="H39" s="21" t="s">

--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -575,14 +575,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +868,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -933,7 +933,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -956,7 +956,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -977,7 +977,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1064,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.8" customHeight="1">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -1088,7 +1088,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1157,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="27.6">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.2" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1369,7 +1369,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="18" t="s">
         <v>28</v>
       </c>
@@ -1453,7 +1453,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.2" customHeight="1">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="82.8">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8" t="s">
         <v>101</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27.6">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1605,7 +1605,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27.6">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1626,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A36" s="26"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="18" t="s">
         <v>38</v>
       </c>
@@ -1666,12 +1666,12 @@
       <c r="G36" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="26" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="37.799999999999997" customHeight="1">
-      <c r="A38" s="26"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A39" s="26"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="18" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +1737,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1760,14 +1760,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="6">
@@ -1776,10 +1776,10 @@
       <c r="F41" s="6">
         <v>1</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="26"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="8" t="s">
         <v>45</v>
       </c>

--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="118">
   <si>
     <t>Page</t>
   </si>
@@ -374,9 +374,6 @@
     <t>按createtime排序</t>
   </si>
   <si>
-    <t>add user   Dept Name 必填项</t>
-  </si>
-  <si>
     <t>Test Method:</t>
   </si>
   <si>
@@ -396,6 +393,12 @@
   </si>
   <si>
     <t>specification 字段 要在quote 的界面显示吗？？？？？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> post和 Dept Name 必填项</t>
   </si>
 </sst>
 </file>
@@ -867,8 +870,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1084,7 +1087,7 @@
         <v>94</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
@@ -1129,7 +1132,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" customHeight="1">
@@ -1150,10 +1153,10 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.4" customHeight="1">
@@ -1557,7 +1560,7 @@
         <v>94</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1667,7 +1670,7 @@
         <v>94</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="36.6" customHeight="1">
@@ -1733,7 +1736,7 @@
         <v>94</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30.6" customHeight="1">
@@ -1843,6 +1846,9 @@
       </c>
       <c r="G44" s="18" t="s">
         <v>94</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2089,11 +2095,9 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>109</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B56" s="24"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9"/>

--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
   <si>
     <t>Page</t>
   </si>
@@ -295,9 +295,6 @@
 修改代码，限制必填项</t>
   </si>
   <si>
-    <t>优化</t>
-  </si>
-  <si>
     <t>待定</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
   </si>
   <si>
     <t>功能增强，之前讨论的是显示近3月信息，待确定需求，建议SP2 修改。</t>
-  </si>
-  <si>
-    <t>参考Vendor Reference Price，待细化需求，建议SP2 修改。</t>
   </si>
   <si>
     <t>待细化需求，建议SP2 修改。</t>
@@ -377,9 +371,6 @@
     <t>Test Method:</t>
   </si>
   <si>
-    <t>在添加product 的时候 也必填</t>
-  </si>
-  <si>
     <t>排序 ， 点击表头进行排序</t>
   </si>
   <si>
@@ -392,13 +383,22 @@
     <t>SP1 修改？？</t>
   </si>
   <si>
-    <t>specification 字段 要在quote 的界面显示吗？？？？？</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve"> post和 Dept Name 必填项</t>
+  </si>
+  <si>
+    <t>product Mapping也要限制？</t>
+  </si>
+  <si>
+    <t>不需要下拉</t>
+  </si>
+  <si>
+    <t>前边讨论要求只按3个月</t>
+  </si>
+  <si>
+    <t>参考Vendor Reference Price</t>
   </si>
 </sst>
 </file>
@@ -578,14 +578,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,8 +870,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -903,10 +903,10 @@
         <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.2" customHeight="1">
@@ -929,14 +929,14 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -955,11 +955,11 @@
         <v>0.1</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -976,11 +976,11 @@
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6">
-      <c r="A5" s="27"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -997,11 +997,11 @@
         <v>5</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1018,14 +1018,14 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -1042,16 +1042,16 @@
         <v>0.1</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>50</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.8" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>92</v>
+      <c r="C9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -1083,15 +1083,15 @@
       <c r="F9" s="6">
         <v>0.2</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>109</v>
+      <c r="G9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
@@ -1108,18 +1108,18 @@
         <v>0.1</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="6">
@@ -1128,22 +1128,22 @@
       <c r="F11" s="6">
         <v>0.1</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>94</v>
+      <c r="G11" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="6">
@@ -1152,15 +1152,15 @@
       <c r="F12" s="6">
         <v>0.2</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>114</v>
+      <c r="G12" s="18" t="s">
+        <v>111</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1179,11 +1179,11 @@
         <v>0.1</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27.6">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>47</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="6">
         <v>5</v>
@@ -1200,11 +1200,11 @@
         <v>5</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
@@ -1221,11 +1221,11 @@
         <v>0.1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="6">
         <v>5</v>
@@ -1242,18 +1242,18 @@
         <v>5</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="6">
@@ -1262,12 +1262,12 @@
       <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>94</v>
+      <c r="G17" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
@@ -1284,11 +1284,11 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1305,11 +1305,11 @@
         <v>3</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
@@ -1326,18 +1326,18 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="18" t="s">
         <v>59</v>
       </c>
       <c r="E21" s="6">
@@ -1346,19 +1346,19 @@
       <c r="F21" s="6">
         <v>0.5</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>94</v>
+      <c r="G21" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.2" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="6">
@@ -1367,12 +1367,12 @@
       <c r="F22" s="6">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>94</v>
+      <c r="G22" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
@@ -1389,17 +1389,15 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
         <v>62</v>
       </c>
@@ -1407,14 +1405,14 @@
         <v>61</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
@@ -1431,11 +1429,11 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A26" s="28"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="18" t="s">
         <v>28</v>
       </c>
@@ -1452,11 +1450,11 @@
         <v>0.1</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.2" customHeight="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1473,18 +1471,18 @@
         <v>0.1</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="6">
@@ -1493,12 +1491,12 @@
       <c r="F28" s="6">
         <v>0.1</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>94</v>
+      <c r="G28" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
@@ -1515,32 +1513,32 @@
         <v>0.1</v>
       </c>
       <c r="G29" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="82.8">
+      <c r="A30" s="27"/>
+      <c r="B30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="82.8">
-      <c r="A30" s="28"/>
-      <c r="B30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1557,21 +1555,21 @@
         <v>1</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="6">
@@ -1580,12 +1578,12 @@
       <c r="F32" s="6">
         <v>0.2</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>94</v>
+      <c r="G32" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="27.6">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1595,7 +1593,7 @@
         <v>47</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="6">
         <v>5</v>
@@ -1604,11 +1602,11 @@
         <v>5</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="27.6">
-      <c r="A34" s="27"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="6">
         <v>4</v>
@@ -1625,11 +1623,11 @@
         <v>3</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" s="6">
         <v>3</v>
@@ -1646,11 +1644,11 @@
         <v>1</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A36" s="27"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="18" t="s">
         <v>38</v>
       </c>
@@ -1667,20 +1665,16 @@
         <v>2</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>115</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A37" s="27"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1690,20 +1684,16 @@
       <c r="F37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="37.799999999999997" customHeight="1">
-      <c r="A38" s="27"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>61</v>
@@ -1711,12 +1701,10 @@
       <c r="F38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A39" s="27"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="18" t="s">
         <v>41</v>
       </c>
@@ -1733,14 +1721,14 @@
         <v>1</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1750,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="6">
         <v>5</v>
@@ -1759,11 +1747,11 @@
         <v>5</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="27"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="18" t="s">
         <v>44</v>
       </c>
@@ -1782,7 +1770,7 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="27"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="8" t="s">
         <v>45</v>
       </c>
@@ -1799,21 +1787,21 @@
         <v>2</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>61</v>
@@ -1821,13 +1809,13 @@
       <c r="F43" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.6" customHeight="1">
       <c r="A44" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>68</v>
@@ -1845,10 +1833,10 @@
         <v>0.2</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1871,7 +1859,7 @@
         <v>1.5</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1883,7 +1871,7 @@
         <v>49</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="6">
         <v>5</v>
@@ -1892,18 +1880,18 @@
         <v>5</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="11.4" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>50</v>
@@ -1915,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1929,7 +1917,7 @@
         <v>49</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E48" s="6">
         <v>5</v>
@@ -1938,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1961,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.8">
@@ -1984,7 +1972,7 @@
         <v>1.5</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28.8">
@@ -2007,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18.600000000000001" customHeight="1">
@@ -2017,11 +2005,9 @@
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>61</v>
@@ -2029,9 +2015,7 @@
       <c r="F52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
@@ -2053,7 +2037,7 @@
         <v>1.5</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="72">
@@ -2076,12 +2060,12 @@
         <v>3</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2095,26 +2079,26 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B56" s="24"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="13"/>
       <c r="B60" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="14"/>
       <c r="B61" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -578,14 +578,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,8 +870,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -959,7 +959,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -980,7 +980,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1001,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.8" customHeight="1">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
@@ -1112,7 +1112,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="18" t="s">
         <v>54</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="27.6">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1225,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1267,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.2" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1412,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A26" s="27"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="18" t="s">
         <v>28</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.2" customHeight="1">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1496,7 +1496,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="82.8">
-      <c r="A30" s="27"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8" t="s">
         <v>99</v>
       </c>
@@ -1538,14 +1538,14 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E31" s="6">
@@ -1554,7 +1554,7 @@
       <c r="F31" s="6">
         <v>1</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="18" t="s">
         <v>93</v>
       </c>
       <c r="H31" s="21" t="s">
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="18" t="s">
         <v>33</v>
       </c>
@@ -1583,7 +1583,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27.6">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27.6">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1648,7 +1648,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A36" s="26"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="18" t="s">
         <v>38</v>
       </c>
@@ -1667,10 +1667,10 @@
       <c r="G36" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="28"/>
+      <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="37.799999999999997" customHeight="1">
-      <c r="A38" s="26"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A39" s="26"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="18" t="s">
         <v>41</v>
       </c>
@@ -1728,7 +1728,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="26"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="18" t="s">
         <v>44</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="26"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="8" t="s">
         <v>45</v>
       </c>

--- a/doc/SP1 需求.xlsx
+++ b/doc/SP1 需求.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="120">
   <si>
     <t>Page</t>
   </si>
@@ -400,12 +400,18 @@
   <si>
     <t>参考Vendor Reference Price</t>
   </si>
+  <si>
+    <t>linux 的文件是以 "/" 为开头的  filepath.startsWith("/")  这个条件去掉</t>
+  </si>
+  <si>
+    <t>UploadFileUtils.java</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +449,12 @@
       <sz val="8"/>
       <color rgb="FF676A6C"/>
       <name val="MyFont"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF146680"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -521,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -580,6 +592,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -868,10 +883,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -936,7 +951,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -959,7 +974,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -980,7 +995,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.6">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1016,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1040,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.200000000000003" customHeight="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1061,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +1082,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.8" customHeight="1">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
@@ -1091,7 +1106,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="18" t="s">
         <v>53</v>
       </c>
@@ -1112,7 +1127,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="18" t="s">
         <v>54</v>
       </c>
@@ -1136,7 +1151,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
@@ -1160,7 +1175,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="29.4" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1183,7 +1198,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="27.6">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1219,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1240,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1261,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1282,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
@@ -1288,7 +1303,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.4" customHeight="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1309,7 +1324,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1345,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.8" customHeight="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="18" t="s">
         <v>23</v>
       </c>
@@ -1351,7 +1366,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.2" customHeight="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
@@ -1372,7 +1387,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.8" customHeight="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
@@ -1393,7 +1408,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1427,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="18" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1448,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="21.6" customHeight="1">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="18" t="s">
         <v>28</v>
       </c>
@@ -1454,7 +1469,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.2" customHeight="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1490,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1496,7 +1511,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1532,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="82.8">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="8" t="s">
         <v>99</v>
       </c>
@@ -1538,7 +1553,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="18" t="s">
         <v>32</v>
       </c>
@@ -1562,7 +1577,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="18" t="s">
         <v>33</v>
       </c>
@@ -1583,7 +1598,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27.6">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1606,7 +1621,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27.6">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1627,7 +1642,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
@@ -1648,7 +1663,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.4" customHeight="1">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="18" t="s">
         <v>38</v>
       </c>
@@ -1670,7 +1685,7 @@
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
@@ -1687,7 +1702,7 @@
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="37.799999999999997" customHeight="1">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
@@ -1704,7 +1719,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="18" t="s">
         <v>41</v>
       </c>
@@ -1728,7 +1743,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1751,7 +1766,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1">
-      <c r="A41" s="27"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="18" t="s">
         <v>44</v>
       </c>
@@ -1770,7 +1785,7 @@
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8" t="s">
         <v>45</v>
       </c>
@@ -2099,6 +2114,14 @@
       <c r="A61" s="14"/>
       <c r="B61" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
